--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\PycharmProjects\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\project_l\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D1CA7-23B8-437F-B328-9E7EC81AE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95297285-A9CF-41DA-91CC-204B4AE4F45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-200" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>标号</t>
   </si>
@@ -68,53 +56,174 @@
     <t xml:space="preserve">  地基与基础</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t xml:space="preserve">     施工准备</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t xml:space="preserve">     支护</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t xml:space="preserve">     基础施工</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t xml:space="preserve">     地下室结构</t>
   </si>
   <si>
-    <t>E，F</t>
+    <t xml:space="preserve">    1-4层混泥土结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5-8层混泥土结构</t>
   </si>
   <si>
     <t xml:space="preserve">  主体结构施工</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-4层混泥土结构</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-8层混泥土结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机电安装工程</t>
+  </si>
+  <si>
+    <t>消防工程验收</t>
+  </si>
+  <si>
+    <t>全系统联调、试运行</t>
+  </si>
+  <si>
+    <t>综合交工验收</t>
+  </si>
+  <si>
+    <t>1号楼安装工程</t>
+  </si>
+  <si>
+    <t>1号楼施工准备</t>
+  </si>
+  <si>
+    <t>1号楼机电工程安装</t>
+  </si>
+  <si>
+    <t>1号楼分项工程检验、调试</t>
+  </si>
+  <si>
+    <t>2号楼安装工程</t>
+  </si>
+  <si>
+    <t>2号楼施工准备</t>
+  </si>
+  <si>
+    <t>2号楼机电工程安装</t>
+  </si>
+  <si>
+    <t>2号楼分项工程检验、调试</t>
+  </si>
+  <si>
+    <t>2号楼机电工程联调、试运行</t>
+  </si>
+  <si>
+    <t>3号楼安装工程</t>
+  </si>
+  <si>
+    <t>3号楼施工准备</t>
+  </si>
+  <si>
+    <t>3号楼机电工程安装</t>
+  </si>
+  <si>
+    <t>3号楼分项工程检验、调试</t>
+  </si>
+  <si>
+    <t>3号楼机电工程联调、试运行</t>
+  </si>
+  <si>
+    <t>施工计划修正</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工</t>
+  </si>
+  <si>
+    <t>施工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2006-03-10</t>
+  </si>
+  <si>
+    <t>2006-03-20</t>
+  </si>
+  <si>
+    <t>2006-01-05</t>
+  </si>
+  <si>
+    <t>2006-01-11</t>
+  </si>
+  <si>
+    <t>2006-02-06</t>
+  </si>
+  <si>
+    <t>2006-02-19</t>
+  </si>
+  <si>
+    <t>2006-03-05</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2006-03-15</t>
+  </si>
+  <si>
+    <t>2006-03-25</t>
+  </si>
+  <si>
+    <t>2006-01-25</t>
+  </si>
+  <si>
+    <t>2006-01-31</t>
+  </si>
+  <si>
+    <t>2006-02-26</t>
+  </si>
+  <si>
+    <t>2006-02-24</t>
+  </si>
+  <si>
+    <t>2006-03-04</t>
+  </si>
+  <si>
+    <t>8,13,18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +245,33 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -161,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +310,18 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,250 +597,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3515625" defaultRowHeight="13.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.46875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.87890625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3515625" style="1"/>
-    <col min="5" max="5" width="8.703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.3515625" style="1"/>
+    <col min="1" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="1"/>
+    <col min="6" max="6" width="8.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3">
+        <v>45323</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45323</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>110</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G3" s="3">
         <v>45323</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="3">
         <v>45432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
         <v>110</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G4" s="3">
         <v>45323</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H4" s="3">
         <v>45432</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>75</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G5" s="3">
         <v>45323</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H5" s="3">
         <v>45397</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E6" s="1">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45323</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45351</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45323</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45352</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45371</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45352</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45382</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45383</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45397</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3">
+        <v>45398</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45422</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45398</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45414</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
-        <v>45352</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45352</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E12" s="1">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45383</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3">
-        <v>45398</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45415</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45432</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45398</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45415</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45432</v>
+      </c>
+      <c r="H13" s="3">
         <v>45432</v>
       </c>
     </row>
@@ -700,6 +964,565 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B0C8F6-F509-43A7-BCEA-F2E20141715B}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="7">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
